--- a/Import Data/Motor_data.xlsx
+++ b/Import Data/Motor_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryand\Desktop\Escuela\DBF\2021\Eff_script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FAA210-E625-48B6-A763-DBD9500530B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B69BC8-8DDA-483E-93FC-71067F1F3A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{58AA777E-0D37-4BC2-A823-2458EDB9FBC8}"/>
+    <workbookView xWindow="4485" yWindow="2340" windowWidth="14130" windowHeight="14790" xr2:uid="{58AA777E-0D37-4BC2-A823-2458EDB9FBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>NAME</t>
   </si>
@@ -109,6 +109,84 @@
   </si>
   <si>
     <t>1220Kv Scorpion SII-3014</t>
+  </si>
+  <si>
+    <t>195Kv Scorpion SII-5525</t>
+  </si>
+  <si>
+    <t>210Kv Scorpion SII-5525</t>
+  </si>
+  <si>
+    <t>520Kv Scorpion SII-4025</t>
+  </si>
+  <si>
+    <t>780Kv Scorpion SII-3020</t>
+  </si>
+  <si>
+    <t>880Kv Scorpion SII-3032</t>
+  </si>
+  <si>
+    <t>885Kv Scorpion SII-2212</t>
+  </si>
+  <si>
+    <t>890Kv Scorpion SII-3020</t>
+  </si>
+  <si>
+    <t>890Kv Scorpion SII-3026</t>
+  </si>
+  <si>
+    <t>900Kv Scorpion SII-2215</t>
+  </si>
+  <si>
+    <t>960Kv Scorpion SII-2212</t>
+  </si>
+  <si>
+    <t>1040Kv Scorpion SII-3014</t>
+  </si>
+  <si>
+    <t>1090Kv Scorpion SII-3008</t>
+  </si>
+  <si>
+    <t>1110Kv Scorpion SII-3020</t>
+  </si>
+  <si>
+    <t>1100Kv Scorpion SII-2208</t>
+  </si>
+  <si>
+    <t>1127Kv Scorpion SII-2215</t>
+  </si>
+  <si>
+    <t>1190Kv Scorpion SII-3026</t>
+  </si>
+  <si>
+    <t>1220Kv Scorpion SII-3008</t>
+  </si>
+  <si>
+    <t>1280Kv Scorpion SII-2208</t>
+  </si>
+  <si>
+    <t>1400Kv Scorpion SII-2212</t>
+  </si>
+  <si>
+    <t>1400KvScorpion SII-2215</t>
+  </si>
+  <si>
+    <t>1490Kv Scorpion SII-2205</t>
+  </si>
+  <si>
+    <t>1585Kv Scorpion SII-2205</t>
+  </si>
+  <si>
+    <t>1610Kv Scorpion S-2503</t>
+  </si>
+  <si>
+    <t>1810Kv Scorpion SII-2215</t>
+  </si>
+  <si>
+    <t>1850Kv Scorpion SII-2212</t>
+  </si>
+  <si>
+    <t>1900Kv Scorpion SII-2205</t>
   </si>
 </sst>
 </file>
@@ -487,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DF6763-A548-4D79-B0E4-B3C072422DB6}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,7 +601,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -537,7 +615,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -551,7 +629,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -565,7 +643,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -579,232 +657,593 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3">
+        <v>195</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1">
+        <v>210</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B9" s="3">
         <v>220</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C9" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D9" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="1">
         <v>250</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>330</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3.1E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1">
-        <v>330</v>
       </c>
       <c r="C10" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="D10" s="1">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>330</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>330</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.74</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B13" s="1">
         <v>380</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>420</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>440</v>
       </c>
       <c r="C13" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D13" s="1">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3">
+        <v>420</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3">
+        <v>440</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D15" s="3">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B16" s="3">
         <v>450</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C16" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="3">
         <v>1.71</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>520</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B18" s="3">
         <v>540</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C18" s="3">
         <v>0.02</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D18" s="3">
         <v>1.22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+    <row r="19" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B19" s="3">
         <v>630</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C19" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D19" s="3">
         <v>1.54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
+    <row r="20" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B20" s="3">
         <v>690</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C20" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D20" s="3">
         <v>2.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1" t="s">
+    <row r="21" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B21" s="3">
         <v>710</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C21" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D21" s="3">
         <v>1.56</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
+    <row r="22" spans="1:4" ht="35.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>780</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B23">
         <v>830</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C23">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D23">
         <v>1.06</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>880</v>
+      </c>
+      <c r="C24">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D24">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>885</v>
+      </c>
+      <c r="C25">
+        <v>0.151</v>
+      </c>
+      <c r="D25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>890</v>
+      </c>
+      <c r="C26">
+        <v>0.02</v>
+      </c>
+      <c r="D26">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>890</v>
+      </c>
+      <c r="C27">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D27">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>900</v>
+      </c>
+      <c r="C28">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B29">
         <v>900</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C29">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D29">
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>960</v>
+      </c>
+      <c r="C30">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>1040</v>
+      </c>
+      <c r="C31">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>1090</v>
+      </c>
+      <c r="C32">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>1110</v>
+      </c>
+      <c r="C33">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D33">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B34">
         <v>1110</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C34">
         <v>1.6E-2</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D34">
         <v>2.08</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>1100</v>
+      </c>
+      <c r="C35">
+        <v>0.17</v>
+      </c>
+      <c r="D35">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>1127</v>
+      </c>
+      <c r="C36">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D36">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>1190</v>
+      </c>
+      <c r="C37">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D37">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>1220</v>
+      </c>
+      <c r="C38">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D38">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B39">
         <v>1220</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C39">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D39">
         <v>1.64</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>1280</v>
+      </c>
+      <c r="C40">
+        <v>0.15</v>
+      </c>
+      <c r="D40">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>1400</v>
+      </c>
+      <c r="C41">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>1400</v>
+      </c>
+      <c r="C42">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>1490</v>
+      </c>
+      <c r="C43">
+        <v>0.188</v>
+      </c>
+      <c r="D43">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>1585</v>
+      </c>
+      <c r="C44">
+        <v>0.182</v>
+      </c>
+      <c r="D44">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>1610</v>
+      </c>
+      <c r="C45">
+        <v>0.18</v>
+      </c>
+      <c r="D45">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>1810</v>
+      </c>
+      <c r="C46">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D46">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>1850</v>
+      </c>
+      <c r="C47">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D47">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>1900</v>
+      </c>
+      <c r="C48">
+        <v>0.128</v>
+      </c>
+      <c r="D48">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
